--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F25169-DCB2-428C-A7B2-C7A320F7420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4A185-82F5-487B-8AE7-AF64B2C84BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="-2394" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Recherche zum Thema SPI &amp; Encoderauswertung</t>
+  </si>
+  <si>
+    <t>18.03.</t>
+  </si>
+  <si>
+    <t>Morphologischer Kasten, Konzepte zusammenstellen</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -555,9 +561,23 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5">
         <f>N5-SUM(C2:C90)</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4A185-82F5-487B-8AE7-AF64B2C84BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7D617-96AB-4799-B0BB-D3EA90675BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-2394" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Morphologischer Kasten, Konzepte zusammenstellen</t>
+  </si>
+  <si>
+    <t>Preise abschätzen, Kostenanalyse SMSe</t>
+  </si>
+  <si>
+    <t>19.03.</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -561,7 +567,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5">
         <f>N5-SUM(C2:C90)</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
@@ -577,6 +583,20 @@
       </c>
       <c r="E6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7D617-96AB-4799-B0BB-D3EA90675BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB0D8A-9BA6-46FD-9926-C8D413B843BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>19.03.</t>
+  </si>
+  <si>
+    <t>20.03.</t>
+  </si>
+  <si>
+    <t>Preise Abschätzen, Konzepte bewerten</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,7 +573,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5">
         <f>N5-SUM(C2:C90)</f>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
@@ -597,6 +603,20 @@
       </c>
       <c r="E7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB0D8A-9BA6-46FD-9926-C8D413B843BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB61CF-95A7-4AB8-BC48-ADEB41FBA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Preise Abschätzen, Konzepte bewerten</t>
+  </si>
+  <si>
+    <t>25.03.</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse, weiteres Konzept hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -543,7 +549,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5">
         <f>N4-SUM(D2:D90)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
@@ -573,7 +579,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5">
         <f>N5-SUM(C2:C90)</f>
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
@@ -587,6 +593,9 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
@@ -601,6 +610,9 @@
       <c r="C7">
         <v>3</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -615,8 +627,28 @@
       <c r="C8">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB61CF-95A7-4AB8-BC48-ADEB41FBA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A00875-617A-471E-918F-0DD78013E14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Nutzwertanalyse, weiteres Konzept hinzugefügt</t>
+  </si>
+  <si>
+    <t>26.03.</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyser, weitere 2 Konzepte ausgearbeitet</t>
+  </si>
+  <si>
+    <t>02.04.</t>
+  </si>
+  <si>
+    <t>Doku angefangen, Konzepte finalisiert</t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -549,7 +561,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5">
         <f>N4-SUM(D2:D90)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
@@ -579,7 +591,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5">
         <f>N5-SUM(C2:C90)</f>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
@@ -649,6 +661,40 @@
       </c>
       <c r="E9" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A00875-617A-471E-918F-0DD78013E14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784EB62-8955-4C33-8A7F-430F38CEB59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>Doku angefangen, Konzepte finalisiert</t>
+  </si>
+  <si>
+    <t>08.04.</t>
+  </si>
+  <si>
+    <t>09.04.</t>
+  </si>
+  <si>
+    <t>13.04.</t>
+  </si>
+  <si>
+    <t>Schema angefangen zu zeichnen, Bauteile gesucht</t>
+  </si>
+  <si>
+    <t>Konzepte Dokumentiert, Filter berechnet</t>
+  </si>
+  <si>
+    <t>Recherche zu Filtern, Filoter dimensioniert, Bauteile herausgesucht</t>
+  </si>
+  <si>
+    <t>Bauteile herausgesucht RS422, Drosseln</t>
   </si>
 </sst>
 </file>
@@ -166,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -561,7 +585,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5">
         <f>N4-SUM(D2:D90)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
@@ -695,6 +719,50 @@
       </c>
       <c r="E11" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>15.04</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784EB62-8955-4C33-8A7F-430F38CEB59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646DCB9-6537-4C1E-90A2-30FCCBFFFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>Bauteile herausgesucht RS422, Drosseln</t>
+  </si>
+  <si>
+    <t>16.04.</t>
+  </si>
+  <si>
+    <t>Berechnungen und Eingangsfilterung dimensionieren</t>
+  </si>
+  <si>
+    <t>18.04.</t>
+  </si>
+  <si>
+    <t>Recherche zum Thema Filterung Common Mode, Differential Mode, 2. Ordnung, 3. Ordnung</t>
+  </si>
+  <si>
+    <t>22.04.</t>
+  </si>
+  <si>
+    <t>Schema zeichnen</t>
   </si>
 </sst>
 </file>
@@ -196,14 +214,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,18 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="5" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -529,16 +547,16 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -554,12 +572,12 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -578,18 +596,18 @@
       <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <f>180*0.25</f>
         <v>45</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6">
         <f>N4-SUM(D2:D90)</f>
         <v>31</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -608,18 +626,18 @@
       <c r="M5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <f>180*0.75</f>
         <v>135</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
         <f>N5-SUM(C2:C90)</f>
-        <v>98</v>
-      </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -636,7 +654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -653,7 +671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -670,7 +688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -687,7 +705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -704,7 +722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -721,7 +739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -732,7 +750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -743,7 +761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -754,8 +772,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
         <v>15.04</v>
       </c>
       <c r="B15">
@@ -763,6 +781,39 @@
       </c>
       <c r="E15" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsjournal.xlsx
+++ b/Arbeitsjournal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646DCB9-6537-4C1E-90A2-30FCCBFFFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCA5F44-22CA-4F1B-87D0-DAE5A8742417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Datum</t>
-  </si>
-  <si>
-    <t>Woche</t>
   </si>
   <si>
     <t>Zeit - G</t>
@@ -164,6 +161,39 @@
   </si>
   <si>
     <t>Schema zeichnen</t>
+  </si>
+  <si>
+    <t>23.04.</t>
+  </si>
+  <si>
+    <t>24.04.</t>
+  </si>
+  <si>
+    <t>Second sources finden, ESD Schutz Motorenausgang</t>
+  </si>
+  <si>
+    <t>29.04.</t>
+  </si>
+  <si>
+    <t>Second Sources finden &amp; Kalkulationen</t>
+  </si>
+  <si>
+    <t>01.05.</t>
+  </si>
+  <si>
+    <t>06.05.</t>
+  </si>
+  <si>
+    <t>Abklärungen betrieben mit ADI; Abklärungen mit Schleuniger; Zwischenstandspräsentation und verarbeiten von Feedback</t>
+  </si>
+  <si>
+    <t>neuen RS422 Reciever rausgesucht; neuen Clock rausgesucht; verschiedene Reciever gegenkalkuliert</t>
+  </si>
+  <si>
+    <t>07.05.</t>
+  </si>
+  <si>
+    <t>Footprints gezeichnet</t>
   </si>
 </sst>
 </file>
@@ -503,18 +533,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="114" customWidth="1"/>
+    <col min="4" max="4" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,303 +557,341 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="6">
         <f>180*0.25</f>
         <v>45</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6">
-        <f>N4-SUM(D2:D90)</f>
-        <v>31</v>
-      </c>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <f>M4-SUM(C2:C90)</f>
+        <v>23</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="6">
         <f>180*0.75</f>
         <v>135</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6">
-        <f>N5-SUM(C2:C90)</f>
-        <v>94</v>
-      </c>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <f>M5-SUM(B2:B90)</f>
+        <v>32</v>
+      </c>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>15.04</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>38</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>41</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>30.04</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
